--- a/fitters/cluster_dynamics.xlsx
+++ b/fitters/cluster_dynamics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Github\vegetation-dynamics\fitters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BE3400-7675-487C-8CB5-1A3B4DFBB373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BBC292-4688-42EE-A115-7097C7392122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,7 +163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,6 +173,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -189,14 +195,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,7 +485,7 @@
   <dimension ref="B2:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,30 +494,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="G2" s="1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="L2" s="1" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="Q2" s="1" t="s">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="Q2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -568,13 +573,13 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>208.13742869917201</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>160.816435853033</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>165.30673929495401</v>
       </c>
       <c r="G4" t="s">
@@ -618,13 +623,13 @@
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>242.033611139279</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>187.342705699552</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>192.478019023668</v>
       </c>
       <c r="G5" t="s">
@@ -668,13 +673,13 @@
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>336.15105358667802</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>261.26288008767602</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6">
         <v>268.06289318057298</v>
       </c>
       <c r="G6" t="s">
@@ -718,13 +723,13 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>459.92761213935501</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>358.90552709623302</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7">
         <v>367.70074833581299</v>
       </c>
       <c r="G7" t="s">
@@ -768,13 +773,13 @@
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>668.68489258357499</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>524.31193950762395</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>536.167605780705</v>
       </c>
       <c r="G8" t="s">
@@ -818,13 +823,13 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>1172.06041249348</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>1141.9656539969101</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>943.790513379603</v>
       </c>
       <c r="G9" t="s">
@@ -865,16 +870,16 @@
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="1">
         <v>1586.4144793294599</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>1280.31509015097</v>
       </c>
       <c r="G10" t="s">
@@ -889,16 +894,16 @@
       <c r="J10">
         <v>19671.835770000002</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="1">
         <v>4653.0622320000002</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="1">
         <v>4547.6322550000004</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="1">
         <v>3784.8393310000001</v>
       </c>
       <c r="Q10" t="s">
@@ -915,16 +920,16 @@
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="1">
         <v>26535.633196560499</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
         <v>25790.2027165371</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>21856.6727759284</v>
       </c>
       <c r="G11" t="s">
@@ -953,42 +958,42 @@
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="1">
         <v>51199.110539033303</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="1">
         <v>49435.268787219298</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>42368.117716030298</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="1">
         <v>25235.513889999998</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="1">
         <v>24538.33152</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="1">
         <v>20778.350190000001</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="1">
         <v>53734.979700000004</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="1">
         <v>51857.498200000002</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="1">
         <v>44481.695110000001</v>
       </c>
     </row>

--- a/fitters/cluster_dynamics.xlsx
+++ b/fitters/cluster_dynamics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Github\vegetation-dynamics\fitters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BBC292-4688-42EE-A115-7097C7392122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0740C1-031C-4FB6-98C0-BD4F99614FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,7 +163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,7 +178,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -195,13 +201,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,7 +492,7 @@
   <dimension ref="B2:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,7 +595,7 @@
       <c r="H4">
         <v>472.62001670000001</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>368.9392512</v>
       </c>
       <c r="J4">
@@ -600,7 +607,7 @@
       <c r="M4">
         <v>1085.5790850000001</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>856.31467350000003</v>
       </c>
       <c r="O4">
@@ -638,7 +645,7 @@
       <c r="H5">
         <v>615.43909380000002</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>482.05452730000002</v>
       </c>
       <c r="J5">
@@ -653,7 +660,7 @@
       <c r="N5">
         <v>1355.6930050000001</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>1122.3080540000001</v>
       </c>
       <c r="Q5" t="s">
@@ -688,7 +695,7 @@
       <c r="H6">
         <v>749.71054370000002</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>588.69084759999998</v>
       </c>
       <c r="J6">
@@ -703,7 +710,7 @@
       <c r="N6">
         <v>1722.1372120000001</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>1428.5872440000001</v>
       </c>
       <c r="Q6" t="s">
@@ -741,7 +748,7 @@
       <c r="I7">
         <v>1226.9201869999999</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>1014.675548</v>
       </c>
       <c r="L7" t="s">
@@ -753,7 +760,7 @@
       <c r="N7" t="s">
         <v>7</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <v>1782.4776019999999</v>
       </c>
       <c r="Q7" t="s">
@@ -765,7 +772,7 @@
       <c r="S7">
         <v>8268.3630009999997</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="3">
         <v>6939.3112520000004</v>
       </c>
     </row>
@@ -791,7 +798,7 @@
       <c r="I8" t="s">
         <v>7</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>1268.0605330000001</v>
       </c>
       <c r="L8" t="s">
@@ -803,7 +810,7 @@
       <c r="N8" t="s">
         <v>7</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>2370.6819479999999</v>
       </c>
       <c r="Q8" t="s">
@@ -815,7 +822,7 @@
       <c r="S8">
         <v>11456.123579999999</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="3">
         <v>11597.399880000001</v>
       </c>
     </row>
@@ -841,7 +848,7 @@
       <c r="I9" t="s">
         <v>7</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>2145.9448109999998</v>
       </c>
       <c r="L9" t="s">
@@ -853,7 +860,7 @@
       <c r="N9">
         <v>3970.6228999999998</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>3309.1796260000001</v>
       </c>
       <c r="Q9" t="s">
@@ -865,7 +872,7 @@
       <c r="S9">
         <v>30706.829269999998</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="3">
         <v>26100.48013</v>
       </c>
     </row>
@@ -873,10 +880,10 @@
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>1586.4144793294599</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="3">
@@ -891,19 +898,19 @@
       <c r="I10" t="s">
         <v>7</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>19671.835770000002</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="4">
         <v>4653.0622320000002</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="4">
         <v>4547.6322550000004</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="3">
         <v>3784.8393310000001</v>
       </c>
       <c r="Q10" t="s">
@@ -915,7 +922,7 @@
       <c r="S10">
         <v>56558.654000000002</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="3">
         <v>48589.098940000003</v>
       </c>
     </row>
@@ -923,10 +930,10 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>26535.633196560499</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>25790.2027165371</v>
       </c>
       <c r="E11" s="3">
@@ -941,19 +948,19 @@
       <c r="I11">
         <v>44598.8004</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>38153.89327</v>
       </c>
       <c r="L11" t="s">
         <v>30</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="4">
         <v>10186.459199999999</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="4">
         <v>8225.9289750000007</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="3">
         <v>8332.8293119999998</v>
       </c>
     </row>
@@ -961,10 +968,10 @@
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>51199.110539033303</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>49435.268787219298</v>
       </c>
       <c r="E12" s="3">
@@ -973,27 +980,29 @@
       <c r="L12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="4">
         <v>25235.513889999998</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="4">
         <v>24538.33152</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="3">
         <v>20778.350190000001</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
       <c r="L13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="4">
         <v>53734.979700000004</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="4">
         <v>51857.498200000002</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="3">
         <v>44481.695110000001</v>
       </c>
     </row>

--- a/fitters/cluster_dynamics.xlsx
+++ b/fitters/cluster_dynamics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Github\vegetation-dynamics\fitters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0740C1-031C-4FB6-98C0-BD4F99614FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD55F637-3E05-4420-9A0F-0070D3F1F2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,7 +163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +188,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -201,14 +207,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,7 +499,7 @@
   <dimension ref="B2:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -501,30 +508,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="G2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="L2" s="2" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="L2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="Q2" s="2" t="s">
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="Q2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -583,7 +590,7 @@
       <c r="C4">
         <v>208.13742869917201</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>160.816435853033</v>
       </c>
       <c r="E4">
@@ -595,7 +602,7 @@
       <c r="H4">
         <v>472.62001670000001</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>368.9392512</v>
       </c>
       <c r="J4">
@@ -607,7 +614,7 @@
       <c r="M4">
         <v>1085.5790850000001</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <v>856.31467350000003</v>
       </c>
       <c r="O4">
@@ -633,7 +640,7 @@
       <c r="C5">
         <v>242.033611139279</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>187.342705699552</v>
       </c>
       <c r="E5">
@@ -645,7 +652,7 @@
       <c r="H5">
         <v>615.43909380000002</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>482.05452730000002</v>
       </c>
       <c r="J5">
@@ -660,7 +667,7 @@
       <c r="N5">
         <v>1355.6930050000001</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="2">
         <v>1122.3080540000001</v>
       </c>
       <c r="Q5" t="s">
@@ -683,7 +690,7 @@
       <c r="C6">
         <v>336.15105358667802</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>261.26288008767602</v>
       </c>
       <c r="E6">
@@ -695,7 +702,7 @@
       <c r="H6">
         <v>749.71054370000002</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>588.69084759999998</v>
       </c>
       <c r="J6">
@@ -710,7 +717,7 @@
       <c r="N6">
         <v>1722.1372120000001</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="2">
         <v>1428.5872440000001</v>
       </c>
       <c r="Q6" t="s">
@@ -733,7 +740,7 @@
       <c r="C7">
         <v>459.92761213935501</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>358.90552709623302</v>
       </c>
       <c r="E7">
@@ -748,7 +755,7 @@
       <c r="I7">
         <v>1226.9201869999999</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>1014.675548</v>
       </c>
       <c r="L7" t="s">
@@ -760,7 +767,7 @@
       <c r="N7" t="s">
         <v>7</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="2">
         <v>1782.4776019999999</v>
       </c>
       <c r="Q7" t="s">
@@ -772,7 +779,7 @@
       <c r="S7">
         <v>8268.3630009999997</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="2">
         <v>6939.3112520000004</v>
       </c>
     </row>
@@ -783,7 +790,7 @@
       <c r="C8">
         <v>668.68489258357499</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>524.31193950762395</v>
       </c>
       <c r="E8">
@@ -798,7 +805,7 @@
       <c r="I8" t="s">
         <v>7</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>1268.0605330000001</v>
       </c>
       <c r="L8" t="s">
@@ -810,10 +817,10 @@
       <c r="N8" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="2">
         <v>2370.6819479999999</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" s="1" t="s">
         <v>38</v>
       </c>
       <c r="R8">
@@ -822,7 +829,7 @@
       <c r="S8">
         <v>11456.123579999999</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="2">
         <v>11597.399880000001</v>
       </c>
     </row>
@@ -836,10 +843,10 @@
       <c r="D9">
         <v>1141.9656539969101</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>943.790513379603</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H9">
@@ -848,7 +855,7 @@
       <c r="I9" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>2145.9448109999998</v>
       </c>
       <c r="L9" t="s">
@@ -860,10 +867,10 @@
       <c r="N9">
         <v>3970.6228999999998</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="2">
         <v>3309.1796260000001</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="1" t="s">
         <v>39</v>
       </c>
       <c r="R9">
@@ -872,7 +879,7 @@
       <c r="S9">
         <v>30706.829269999998</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="2">
         <v>26100.48013</v>
       </c>
     </row>
@@ -880,16 +887,16 @@
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>1586.4144793294599</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>1280.31509015097</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H10">
@@ -898,22 +905,22 @@
       <c r="I10" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>19671.835770000002</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <v>4653.0622320000002</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <v>4547.6322550000004</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="2">
         <v>3784.8393310000001</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="Q10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="R10">
@@ -922,7 +929,7 @@
       <c r="S10">
         <v>56558.654000000002</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="2">
         <v>48589.098940000003</v>
       </c>
     </row>
@@ -930,16 +937,16 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>26535.633196560499</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>25790.2027165371</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>21856.6727759284</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H11">
@@ -948,19 +955,19 @@
       <c r="I11">
         <v>44598.8004</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>38153.89327</v>
       </c>
       <c r="L11" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="3">
         <v>10186.459199999999</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="3">
         <v>8225.9289750000007</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="2">
         <v>8332.8293119999998</v>
       </c>
     </row>
@@ -968,41 +975,41 @@
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>51199.110539033303</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>49435.268787219298</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>42368.117716030298</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>25235.513889999998</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>24538.33152</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="2">
         <v>20778.350190000001</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
       <c r="L13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <v>53734.979700000004</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>51857.498200000002</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="2">
         <v>44481.695110000001</v>
       </c>
     </row>

--- a/fitters/cluster_dynamics.xlsx
+++ b/fitters/cluster_dynamics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Github\vegetation-dynamics\fitters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD55F637-3E05-4420-9A0F-0070D3F1F2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE26911-C43E-413D-A4C7-815947F6E758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,10 +212,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,7 +499,7 @@
   <dimension ref="B2:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,30 +508,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="G2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="L2" s="4" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="L2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="Q2" s="4" t="s">
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="Q2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -846,7 +846,7 @@
       <c r="E9" s="2">
         <v>943.790513379603</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H9">
@@ -896,7 +896,7 @@
       <c r="E10" s="2">
         <v>1280.31509015097</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H10">
@@ -946,7 +946,7 @@
       <c r="E11" s="2">
         <v>21856.6727759284</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H11">
